--- a/src/assets/basic/rękawice.xlsx
+++ b/src/assets/basic/rękawice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>Nazwa</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t>Zestaw strażnika</t>
+  </si>
+  <si>
+    <t>Pusty</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -724,13 +733,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -789,136 +798,136 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="4">
         <v>200</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D3" s="4">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E3" s="4">
         <v>17</v>
       </c>
-      <c r="F2" s="4">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="F3" s="4">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="5">
         <v>400</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="5">
         <v>1.2</v>
       </c>
-      <c r="D3" s="5">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D4" s="5">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
         <v>13</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="5">
         <v>24</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="5">
         <v>8</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
         <v>14</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J4" s="5">
         <v>32</v>
       </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="4">
-        <v>400</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="4">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>14</v>
-      </c>
-      <c r="J4" s="4">
-        <v>35</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C5" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D5" s="4">
         <v>12</v>
       </c>
       <c r="E5" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4">
         <v>10</v>
@@ -927,667 +936,667 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J5" s="4">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="C6" s="4">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="D6" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J6" s="4">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K6" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B7" s="4">
         <v>250</v>
       </c>
       <c r="C7" s="4">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="D7" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>16</v>
       </c>
-      <c r="F7" s="4">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>14</v>
-      </c>
       <c r="J7" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="C8" s="4">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="D8" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J8" s="4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K8" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C9" s="4">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="D9" s="4">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E9" s="4">
         <v>7</v>
       </c>
       <c r="F9" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G9" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="J9" s="4">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K9" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B10" s="4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C10" s="4">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="D10" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F10" s="4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J10" s="4">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4">
         <v>400</v>
       </c>
       <c r="C11" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="D11" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F11" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G11" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" s="4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B12" s="4">
         <v>400</v>
       </c>
       <c r="C12" s="4">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D12" s="4">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
         <v>14</v>
       </c>
-      <c r="F12" s="4">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4">
-        <v>9</v>
-      </c>
       <c r="H12" s="4">
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J12" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K12" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B13" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C13" s="4">
         <v>1.8</v>
       </c>
       <c r="D13" s="4">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4">
         <v>14</v>
       </c>
-      <c r="E13" s="4">
-        <v>12</v>
-      </c>
       <c r="F13" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G13" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J13" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K13" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1">
       <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
+        <v>200</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>12</v>
+      </c>
+      <c r="J14" s="4">
+        <v>12</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B15" s="4">
         <v>350</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="4">
         <v>0.7</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="4">
         <v>5</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <v>5</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="4">
         <v>3</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G15" s="4">
         <v>4</v>
       </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
         <v>5</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J15" s="4">
         <v>4</v>
       </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B16" s="5">
         <v>400</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C16" s="5">
         <v>2.8</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="5">
         <v>15</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <v>15</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F16" s="5">
         <v>19</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G16" s="5">
         <v>19</v>
       </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
         <v>14</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J16" s="5">
         <v>7</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K16" s="5">
         <v>18</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B17" s="4">
         <v>250</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="4">
         <v>1.8</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="4">
         <v>13</v>
       </c>
-      <c r="E16" s="4">
-        <v>12</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E17" s="4">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4">
         <v>8</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G17" s="4">
         <v>9</v>
       </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>14</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J17" s="4">
         <v>18</v>
       </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="5">
-        <v>700</v>
-      </c>
-      <c r="C17" s="5">
-        <v>4</v>
-      </c>
-      <c r="D17" s="5">
-        <v>29</v>
-      </c>
-      <c r="E17" s="5">
-        <v>12</v>
-      </c>
-      <c r="F17" s="5">
-        <v>16</v>
-      </c>
-      <c r="G17" s="5">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5">
-        <v>6</v>
-      </c>
-      <c r="I17" s="5">
-        <v>12</v>
-      </c>
-      <c r="J17" s="5">
-        <v>6</v>
-      </c>
-      <c r="K17" s="5">
-        <v>6</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="5">
+        <v>700</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5">
+        <v>29</v>
+      </c>
+      <c r="E18" s="5">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5">
+        <v>14</v>
+      </c>
+      <c r="H18" s="5">
+        <v>6</v>
+      </c>
+      <c r="I18" s="5">
+        <v>12</v>
+      </c>
+      <c r="J18" s="5">
+        <v>6</v>
+      </c>
+      <c r="K18" s="5">
+        <v>6</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B19" s="5">
         <v>300</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C19" s="5">
         <v>3</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="5">
         <v>17</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <v>13</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F19" s="5">
         <v>13</v>
       </c>
-      <c r="G18" s="5">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="G19" s="5">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5">
         <v>3</v>
       </c>
-      <c r="I18" s="5">
-        <v>12</v>
-      </c>
-      <c r="J18" s="5">
-        <v>10</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="I19" s="5">
+        <v>12</v>
+      </c>
+      <c r="J19" s="5">
+        <v>10</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="A20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B20" s="4">
         <v>250</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>2.8</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <v>15</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>11</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
         <v>14</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <v>9</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <v>3</v>
       </c>
-      <c r="I19" s="4">
-        <v>12</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="I20" s="4">
+        <v>12</v>
+      </c>
+      <c r="J20" s="4">
         <v>22</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K20" s="4">
         <v>11</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:12" ht="15" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B21" s="5">
         <v>700</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C21" s="5">
         <v>10.4</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="5">
         <v>61</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="5">
         <v>31</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="5">
         <v>40</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="5">
         <v>33</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="5">
         <v>21</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="5">
         <v>33</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="5">
         <v>16</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="5">
         <v>5</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:12" ht="15" customHeight="1">
+      <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B22" s="4">
         <v>250</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>2.8</v>
       </c>
-      <c r="D21" s="4">
-        <v>12</v>
-      </c>
-      <c r="E21" s="4">
-        <v>12</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="D22" s="4">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4">
         <v>6</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="4">
         <v>13</v>
       </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
         <v>13</v>
       </c>
-      <c r="J21" s="4">
-        <v>12</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="J22" s="4">
+        <v>12</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="5">
-        <v>800</v>
-      </c>
-      <c r="C22" s="5">
-        <v>10.4</v>
-      </c>
-      <c r="D22" s="5">
-        <v>54</v>
-      </c>
-      <c r="E22" s="5">
-        <v>27</v>
-      </c>
-      <c r="F22" s="5">
-        <v>33</v>
-      </c>
-      <c r="G22" s="5">
-        <v>33</v>
-      </c>
-      <c r="H22" s="5">
-        <v>23</v>
-      </c>
-      <c r="I22" s="5">
-        <v>27</v>
-      </c>
-      <c r="J22" s="5">
-        <v>10</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B23" s="5">
         <v>800</v>
@@ -1595,14 +1604,14 @@
       <c r="C23" s="5">
         <v>10.4</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>54</v>
       </c>
       <c r="E23" s="5">
+        <v>27</v>
+      </c>
+      <c r="F23" s="5">
         <v>33</v>
-      </c>
-      <c r="F23" s="5">
-        <v>27</v>
       </c>
       <c r="G23" s="5">
         <v>33</v>
@@ -1620,743 +1629,743 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="5">
+        <v>800</v>
+      </c>
+      <c r="C24" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>54</v>
+      </c>
+      <c r="E24" s="5">
+        <v>33</v>
+      </c>
+      <c r="F24" s="5">
+        <v>27</v>
+      </c>
+      <c r="G24" s="5">
+        <v>33</v>
+      </c>
+      <c r="H24" s="5">
+        <v>23</v>
+      </c>
+      <c r="I24" s="5">
+        <v>27</v>
+      </c>
+      <c r="J24" s="5">
+        <v>10</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="4">
-        <v>300</v>
-      </c>
-      <c r="C24" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="D24" s="4">
-        <v>27</v>
-      </c>
-      <c r="E24" s="4">
-        <v>18</v>
-      </c>
-      <c r="F24" s="4">
-        <v>18</v>
-      </c>
-      <c r="G24" s="4">
-        <v>15</v>
-      </c>
-      <c r="H24" s="4">
-        <v>9</v>
-      </c>
-      <c r="I24" s="4">
-        <v>18</v>
-      </c>
-      <c r="J24" s="4">
-        <v>12</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B25" s="4">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C25" s="4">
-        <v>4.5999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="D25" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E25" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F25" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G25" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H25" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I25" s="4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J25" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K25" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B26" s="4">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C26" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="D26" s="6">
-        <v>10</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D26" s="4">
+        <v>20</v>
       </c>
       <c r="E26" s="4">
         <v>10</v>
       </c>
       <c r="F26" s="4">
+        <v>21</v>
+      </c>
+      <c r="G26" s="4">
+        <v>10</v>
+      </c>
+      <c r="H26" s="4">
         <v>7</v>
       </c>
-      <c r="G26" s="4">
-        <v>10</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
       <c r="I26" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J26" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K26" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="B27" s="4">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C27" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D27" s="4">
-        <v>13</v>
+        <v>2.8</v>
+      </c>
+      <c r="D27" s="6">
+        <v>10</v>
       </c>
       <c r="E27" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27" s="4">
         <v>7</v>
       </c>
       <c r="G27" s="4">
+        <v>10</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>15</v>
+      </c>
+      <c r="J27" s="4">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4">
+        <v>250</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D28" s="4">
         <v>13</v>
       </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
+      <c r="E28" s="4">
+        <v>12</v>
+      </c>
+      <c r="F28" s="4">
+        <v>7</v>
+      </c>
+      <c r="G28" s="4">
+        <v>13</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
         <v>14</v>
       </c>
-      <c r="J27" s="4">
-        <v>12</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
+      <c r="J28" s="4">
+        <v>12</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B29" s="5">
         <v>900</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C29" s="5">
         <v>11.5</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D29" s="5">
         <v>54</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="5">
         <v>32</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F29" s="5">
         <v>32</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G29" s="5">
         <v>29</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H29" s="5">
         <v>28</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I29" s="5">
         <v>27</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J29" s="5">
         <v>5</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K29" s="5">
         <v>13</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="4">
-        <v>400</v>
-      </c>
-      <c r="C29" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="D29" s="4">
-        <v>34</v>
-      </c>
-      <c r="E29" s="4">
-        <v>18</v>
-      </c>
-      <c r="F29" s="4">
-        <v>21</v>
-      </c>
-      <c r="G29" s="4">
-        <v>12</v>
-      </c>
-      <c r="H29" s="4">
-        <v>13</v>
-      </c>
-      <c r="I29" s="4">
-        <v>21</v>
-      </c>
-      <c r="J29" s="4">
-        <v>13</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B30" s="4">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C30" s="4">
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="D30" s="4">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E30" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F30" s="4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G30" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H30" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I30" s="4">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J30" s="4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B31" s="4">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="C31" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D31" s="4">
+        <v>25</v>
+      </c>
+      <c r="E31" s="4">
+        <v>12</v>
+      </c>
+      <c r="F31" s="4">
+        <v>14</v>
+      </c>
+      <c r="G31" s="4">
+        <v>16</v>
+      </c>
+      <c r="H31" s="4">
+        <v>9</v>
+      </c>
+      <c r="I31" s="4">
+        <v>11</v>
+      </c>
+      <c r="J31" s="4">
         <v>6</v>
       </c>
-      <c r="D31" s="4">
-        <v>26</v>
-      </c>
-      <c r="E31" s="4">
-        <v>14</v>
-      </c>
-      <c r="F31" s="4">
-        <v>23</v>
-      </c>
-      <c r="G31" s="4">
-        <v>8</v>
-      </c>
-      <c r="H31" s="4">
-        <v>10</v>
-      </c>
-      <c r="I31" s="4">
-        <v>15</v>
-      </c>
-      <c r="J31" s="4">
-        <v>8</v>
-      </c>
       <c r="K31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B32" s="4">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="C32" s="4">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="D32" s="4">
         <v>26</v>
       </c>
       <c r="E32" s="4">
+        <v>14</v>
+      </c>
+      <c r="F32" s="4">
+        <v>23</v>
+      </c>
+      <c r="G32" s="4">
+        <v>8</v>
+      </c>
+      <c r="H32" s="4">
+        <v>10</v>
+      </c>
+      <c r="I32" s="4">
+        <v>15</v>
+      </c>
+      <c r="J32" s="4">
+        <v>8</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="4">
+        <v>250</v>
+      </c>
+      <c r="C33" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="D33" s="4">
+        <v>26</v>
+      </c>
+      <c r="E33" s="4">
         <v>16</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F33" s="4">
         <v>18</v>
       </c>
-      <c r="G32" s="4">
-        <v>12</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G33" s="4">
+        <v>12</v>
+      </c>
+      <c r="H33" s="4">
         <v>9</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I33" s="4">
         <v>16</v>
       </c>
-      <c r="J32" s="4">
-        <v>10</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
+      <c r="J33" s="4">
+        <v>10</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="A34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B34" s="5">
         <v>700</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C34" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D34" s="5">
         <v>54</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="5">
         <v>25</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F34" s="5">
         <v>23</v>
       </c>
-      <c r="G33" s="5">
-        <v>10</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="G34" s="5">
+        <v>10</v>
+      </c>
+      <c r="H34" s="5">
         <v>20</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I34" s="5">
         <v>27</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J34" s="5">
         <v>17</v>
       </c>
-      <c r="K33" s="5">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="4">
-        <v>600</v>
-      </c>
-      <c r="C34" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="D34" s="4">
-        <v>24</v>
-      </c>
-      <c r="E34" s="4">
-        <v>14</v>
-      </c>
-      <c r="F34" s="4">
-        <v>12</v>
-      </c>
-      <c r="G34" s="4">
-        <v>12</v>
-      </c>
-      <c r="H34" s="4">
-        <v>8</v>
-      </c>
-      <c r="I34" s="4">
-        <v>12</v>
-      </c>
-      <c r="J34" s="4">
-        <v>10</v>
-      </c>
-      <c r="K34" s="4">
-        <v>6</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B35" s="4">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C35" s="4">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="D35" s="4">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E35" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F35" s="4">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G35" s="4">
         <v>12</v>
       </c>
       <c r="H35" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I35" s="4">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J35" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K35" s="4">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B36" s="4">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="C36" s="4">
-        <v>9.6999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="D36" s="4">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E36" s="4">
         <v>19</v>
       </c>
       <c r="F36" s="4">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G36" s="4">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H36" s="4">
+        <v>12</v>
+      </c>
+      <c r="I36" s="4">
         <v>21</v>
       </c>
-      <c r="I36" s="4">
-        <v>19</v>
-      </c>
       <c r="J36" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K36" s="4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B37" s="4">
         <v>600</v>
       </c>
       <c r="C37" s="4">
-        <v>9.1999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D37" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E37" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F37" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" s="4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H37" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I37" s="4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J37" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K37" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="C38" s="4">
-        <v>7</v>
-      </c>
-      <c r="D38" s="6">
-        <v>27</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D38" s="4">
+        <v>40</v>
       </c>
       <c r="E38" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F38" s="4">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G38" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H38" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I38" s="4">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J38" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K38" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B39" s="4">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="C39" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="D39" s="4">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="D39" s="6">
+        <v>27</v>
       </c>
       <c r="E39" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F39" s="4">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G39" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H39" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I39" s="4">
         <v>11</v>
       </c>
       <c r="J39" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K39" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="C40" s="4">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D40" s="4">
         <v>17</v>
       </c>
       <c r="E40" s="4">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4">
+        <v>10</v>
+      </c>
+      <c r="G40" s="4">
+        <v>9</v>
+      </c>
+      <c r="H40" s="4">
         <v>7</v>
       </c>
-      <c r="F40" s="4">
+      <c r="I40" s="4">
+        <v>11</v>
+      </c>
+      <c r="J40" s="4">
+        <v>7</v>
+      </c>
+      <c r="K40" s="4">
+        <v>2</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="4">
+        <v>450</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D41" s="4">
+        <v>17</v>
+      </c>
+      <c r="E41" s="4">
+        <v>7</v>
+      </c>
+      <c r="F41" s="4">
         <v>8</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G41" s="4">
         <v>5</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H41" s="4">
         <v>5</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I41" s="4">
         <v>6</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J41" s="4">
         <v>5</v>
       </c>
-      <c r="K40" s="4">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3" t="s">
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
-      <c r="A41" s="5" t="s">
+    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="A42" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B42" s="5">
         <v>500</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C42" s="5">
         <v>3</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D42" s="5">
         <v>11</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E42" s="5">
         <v>7</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F42" s="5">
         <v>7</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G42" s="5">
         <v>6</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H42" s="5">
         <v>4</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I42" s="5">
         <v>6</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J42" s="5">
         <v>5</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K42" s="5">
         <v>4</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="4">
-        <v>400</v>
-      </c>
-      <c r="C42" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D42" s="4">
-        <v>17</v>
-      </c>
-      <c r="E42" s="4">
-        <v>7</v>
-      </c>
-      <c r="F42" s="4">
-        <v>8</v>
-      </c>
-      <c r="G42" s="4">
-        <v>4</v>
-      </c>
-      <c r="H42" s="4">
-        <v>6</v>
-      </c>
-      <c r="I42" s="4">
-        <v>8</v>
-      </c>
-      <c r="J42" s="4">
-        <v>5</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B43" s="4">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="C43" s="4">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D43" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" s="4">
         <v>7</v>
@@ -2365,13 +2374,13 @@
         <v>8</v>
       </c>
       <c r="G43" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" s="4">
         <v>6</v>
       </c>
       <c r="I43" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J43" s="4">
         <v>5</v>
@@ -2380,173 +2389,173 @@
         <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B44" s="4">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="C44" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="D44" s="4">
+        <v>18</v>
+      </c>
+      <c r="E44" s="4">
+        <v>7</v>
+      </c>
+      <c r="F44" s="4">
+        <v>8</v>
+      </c>
+      <c r="G44" s="4">
         <v>5</v>
       </c>
-      <c r="D44" s="4">
-        <v>21</v>
-      </c>
-      <c r="E44" s="4">
-        <v>10</v>
-      </c>
-      <c r="F44" s="4">
-        <v>12</v>
-      </c>
-      <c r="G44" s="4">
-        <v>8</v>
-      </c>
       <c r="H44" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I44" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J44" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K44" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B45" s="4">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C45" s="4">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E45" s="4">
         <v>10</v>
       </c>
       <c r="F45" s="4">
+        <v>12</v>
+      </c>
+      <c r="G45" s="4">
         <v>8</v>
       </c>
-      <c r="G45" s="4">
-        <v>4</v>
-      </c>
       <c r="H45" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I45" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J45" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K45" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B46" s="4">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="C46" s="4">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="D46" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E46" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F46" s="4">
+        <v>8</v>
+      </c>
+      <c r="G46" s="4">
         <v>4</v>
       </c>
-      <c r="G46" s="4">
-        <v>2</v>
-      </c>
       <c r="H46" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I46" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J46" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K46" s="4">
         <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B47" s="4">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="C47" s="4">
-        <v>7.4</v>
+        <v>1.5</v>
       </c>
       <c r="D47" s="4">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E47" s="4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F47" s="4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G47" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H47" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I47" s="4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J47" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K47" s="4">
         <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B48" s="4">
         <v>500</v>
       </c>
       <c r="C48" s="4">
-        <v>8.3000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="D48" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" s="4">
         <v>13</v>
@@ -2555,10 +2564,10 @@
         <v>12</v>
       </c>
       <c r="G48" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H48" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I48" s="4">
         <v>14</v>
@@ -2570,6 +2579,44 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="4">
+        <v>500</v>
+      </c>
+      <c r="C49" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D49" s="4">
+        <v>25</v>
+      </c>
+      <c r="E49" s="4">
+        <v>13</v>
+      </c>
+      <c r="F49" s="4">
+        <v>12</v>
+      </c>
+      <c r="G49" s="4">
+        <v>8</v>
+      </c>
+      <c r="H49" s="4">
+        <v>14</v>
+      </c>
+      <c r="I49" s="4">
+        <v>14</v>
+      </c>
+      <c r="J49" s="4">
+        <v>9</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>68</v>
       </c>
     </row>

--- a/src/assets/basic/rękawice.xlsx
+++ b/src/assets/basic/rękawice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
   <si>
     <t>Nazwa</t>
   </si>
@@ -107,15 +107,6 @@
   </si>
   <si>
     <t>Czarne rękawice bojowe czarodzieja</t>
-  </si>
-  <si>
-    <t>18 .0</t>
-  </si>
-  <si>
-    <t>18. 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 .0 </t>
   </si>
   <si>
     <t>Czarny zestaw czarodzieja</t>
@@ -739,7 +730,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -798,40 +789,40 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
@@ -859,22 +850,22 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="4">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5">
         <v>400</v>
@@ -907,12 +898,12 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="4">
         <v>400</v>
@@ -945,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
@@ -988,7 +979,7 @@
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4">
         <v>250</v>
@@ -1021,12 +1012,12 @@
         <v>6</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="4">
         <v>250</v>
@@ -1059,12 +1050,12 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4">
         <v>400</v>
@@ -1097,12 +1088,12 @@
         <v>4</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4">
         <v>200</v>
@@ -1135,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1">
@@ -1178,7 +1169,7 @@
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B12" s="4">
         <v>400</v>
@@ -1211,12 +1202,12 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" s="4">
         <v>400</v>
@@ -1249,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1">
@@ -1292,7 +1283,7 @@
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" s="4">
         <v>350</v>
@@ -1325,12 +1316,12 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5">
         <v>400</v>
@@ -1363,7 +1354,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
@@ -1406,7 +1397,7 @@
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="5">
         <v>700</v>
@@ -1439,12 +1430,12 @@
         <v>6</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5">
         <v>300</v>
@@ -1477,12 +1468,12 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B20" s="4">
         <v>250</v>
@@ -1515,12 +1506,12 @@
         <v>11</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" s="5">
         <v>700</v>
@@ -1553,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
@@ -1596,7 +1587,7 @@
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B23" s="5">
         <v>800</v>
@@ -1629,12 +1620,12 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5">
         <v>800</v>
@@ -1667,12 +1658,12 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B25" s="4">
         <v>300</v>
@@ -1705,12 +1696,12 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B26" s="4">
         <v>600</v>
@@ -1743,12 +1734,12 @@
         <v>9</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B27" s="4">
         <v>300</v>
@@ -1781,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1">
@@ -1824,7 +1815,7 @@
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="5">
         <v>900</v>
@@ -1857,12 +1848,12 @@
         <v>13</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" s="4">
         <v>400</v>
@@ -1895,12 +1886,12 @@
         <v>0</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B31" s="4">
         <v>600</v>
@@ -1933,12 +1924,12 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B32" s="4">
         <v>550</v>
@@ -1971,12 +1962,12 @@
         <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B33" s="4">
         <v>250</v>
@@ -2009,12 +2000,12 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B34" s="5">
         <v>700</v>
@@ -2047,12 +2038,12 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B35" s="4">
         <v>600</v>
@@ -2085,12 +2076,12 @@
         <v>6</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B36" s="4">
         <v>500</v>
@@ -2123,12 +2114,12 @@
         <v>34</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B37" s="4">
         <v>600</v>
@@ -2161,12 +2152,12 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" s="4">
         <v>600</v>
@@ -2199,12 +2190,12 @@
         <v>8</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B39" s="4">
         <v>450</v>
@@ -2237,12 +2228,12 @@
         <v>0</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4">
         <v>350</v>
@@ -2275,12 +2266,12 @@
         <v>2</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B41" s="4">
         <v>450</v>
@@ -2313,12 +2304,12 @@
         <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42" s="5">
         <v>500</v>
@@ -2351,7 +2342,7 @@
         <v>4</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1">
@@ -2432,7 +2423,7 @@
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B45" s="4">
         <v>500</v>
@@ -2465,7 +2456,7 @@
         <v>10</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1">
@@ -2508,7 +2499,7 @@
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B47" s="4">
         <v>450</v>
@@ -2541,12 +2532,12 @@
         <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B48" s="4">
         <v>500</v>
@@ -2579,12 +2570,12 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B49" s="4">
         <v>500</v>
@@ -2617,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
